--- a/inst/OM.xlsx
+++ b/inst/OM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\DLMtool\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC83757-AE6C-4BDF-ACF3-423817E97CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110"/>
+    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>Slot</t>
   </si>
@@ -46,12 +47,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Mexp</t>
-  </si>
-  <si>
     <t>Msd</t>
   </si>
   <si>
@@ -67,12 +62,6 @@
     <t>AC</t>
   </si>
   <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Amplitude</t>
-  </si>
-  <si>
     <t>Linf</t>
   </si>
   <si>
@@ -169,30 +158,6 @@
     <t>DR</t>
   </si>
   <si>
-    <t>SelYears</t>
-  </si>
-  <si>
-    <t>AbsSelYears</t>
-  </si>
-  <si>
-    <t>L5Lower</t>
-  </si>
-  <si>
-    <t>L5Upper</t>
-  </si>
-  <si>
-    <t>LFSLower</t>
-  </si>
-  <si>
-    <t>LFSUpper</t>
-  </si>
-  <si>
-    <t>VmaxLower</t>
-  </si>
-  <si>
-    <t>VmaxUpper</t>
-  </si>
-  <si>
     <t>CurrentYr</t>
   </si>
   <si>
@@ -220,9 +185,6 @@
     <t>Iobs</t>
   </si>
   <si>
-    <t>Ibiascv</t>
-  </si>
-  <si>
     <t>Btobs</t>
   </si>
   <si>
@@ -253,9 +215,6 @@
     <t>LFSbiascv</t>
   </si>
   <si>
-    <t>FMSYbiascv</t>
-  </si>
-  <si>
     <t>FMSY_Mbiascv</t>
   </si>
   <si>
@@ -338,13 +297,22 @@
   </si>
   <si>
     <t>OMName</t>
+  </si>
+  <si>
+    <t>sigmaRbiascv</t>
+  </si>
+  <si>
+    <t>Eobs</t>
+  </si>
+  <si>
+    <t>Ebiascv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -352,24 +320,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -384,9 +341,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,333 +638,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1018,164 +916,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1185,54 +1090,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1242,100 +1147,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B13">
         <v>1</v>
